--- a/challenge.xlsx
+++ b/challenge.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\popolion-x86_64-pc-windows-msvc\popolion-x86_64-pc-windows-msvc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC663E6E-B528-47E1-B79A-2BAA5C38F9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C11F7FAD-E1A9-4E67-A470-6D55D90DCF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,16 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>딩고파실 지구
 (Dingofasil District)
 (ディンゴパシル地区)</t>
   </si>
   <si>
-    <t>내성벽 제 10구역
-(Inner Wall District 10)
-(内城壁・第10区域)</t>
+    <t>내성벽 제 10구역,(Inner Wall District 10),(内城壁・第10区域)</t>
   </si>
   <si>
     <t>테레쉬 숲
@@ -53,9 +51,7 @@
 (テレシュの森)</t>
   </si>
   <si>
-    <t>메이번 대수도원
-(Maven Abbey)
-(メイバーン大修道院)</t>
+    <t>메이번 대수도원,(Maven Abbey),(メイバーン大修道院)</t>
   </si>
   <si>
     <t>스칼다 외곽
@@ -63,9 +59,7 @@
 (スカルダ外郭)</t>
   </si>
   <si>
-    <t>아크멘스 능선
-(Akmens Ridge)
-(アクメンスの尾根)</t>
+    <t>아크멘스 능선,(Akmens Ridge),(アクメンスの尾根)</t>
   </si>
   <si>
     <t>관문로
@@ -73,9 +67,7 @@
 (関門路)</t>
   </si>
   <si>
-    <t>남부 파리아스 숲
-(Southern Parias Forest)
-(南部ファリアス森)</t>
+    <t>카듀멜 절벽,(Kadumel Cliff),(カデュメルの絶壁)</t>
   </si>
   <si>
     <t>누오로딘 폭포
@@ -83,9 +75,7 @@
 (ヌオルディンの滝)</t>
   </si>
   <si>
-    <t>덧댄다리 숲
-(Woods of the Linked Bridges)
-(重ね橋の森)</t>
+    <t>덧댄다리 숲,(Woods of the Linked Bridges),(重ね橋の森)</t>
   </si>
   <si>
     <t>대성당 본당
@@ -93,9 +83,7 @@
 ([大聖堂]本堂)</t>
   </si>
   <si>
-    <t>게나르 평원
-(Genar Field)
-(ゲナル平原)</t>
+    <t>게나르 평원,(Genar Field),(ゲナル平原)</t>
   </si>
   <si>
     <t>아샤크 지하 감옥 1층
@@ -103,14 +91,15 @@
 (アシャーク地下監獄 1階)</t>
   </si>
   <si>
+    <t>관문로,(Gate Route),(関門路)</t>
+  </si>
+  <si>
     <t>나하스 숲
 (Nahash Forest)
 (ナハスの森)</t>
   </si>
   <si>
-    <t>라우키메 저습지
-(Laukyme Swamp)
-(ラウキメ低湿地)</t>
+    <t>라우키메 저습지,(Laukyme Swamp),(ラウキメ低湿地)</t>
   </si>
   <si>
     <t>라다르 숲
@@ -118,129 +107,103 @@
 (ラダル森)</t>
   </si>
   <si>
-    <t>실라 숲
-(Syla Forest)
-(シーラ森)</t>
-  </si>
-  <si>
-    <t>파우피스 나루
-(Paupys Crossing)
-(パウフィスの渡し場)</t>
-  </si>
-  <si>
-    <t>지부리나스 숲
-(Ziburynas Forest)
-(ジブリナス森)</t>
-  </si>
-  <si>
-    <t>메사파슬라
-(Mesafasla)
-(メサパスラ)</t>
-  </si>
-  <si>
-    <t>란코22수역
-(Lanko 22 Waters)
-(ランコ水域・第22区)</t>
-  </si>
-  <si>
-    <t>시르드겔라 숲
-(Sirdgela Forest)
-(シルドゲラの森)</t>
-  </si>
-  <si>
-    <t>아르커스 숲
-(Arcus Forest)
-(アルコス森)</t>
-  </si>
-  <si>
-    <t>피스티스 숲
-(Pystis Forest)
-(ピスティス森)</t>
-  </si>
-  <si>
-    <t>섹타 숲
-(Sekta Forest)
-(セクターの森)</t>
-  </si>
-  <si>
-    <t>비에타 계곡
-(Vieta Gorge)
-(ビエタ渓谷)</t>
-  </si>
-  <si>
-    <t>제로멜 공원
-(Jeromel Park)
-(ジェロメル公園)</t>
-  </si>
-  <si>
-    <t>파사카 협곡
-(Fasika Plateau)
-(パサカ峡谷)</t>
-  </si>
-  <si>
-    <t>셉티니 골
-(Septyni Glen)
-(セプティニーの谷)</t>
-  </si>
-  <si>
-    <t>긴다리 계곡
-(Overlong Bridge Valley)
-(長橋峡谷)</t>
-  </si>
-  <si>
-    <t>중부 파리아스 숲
-(Central Parias Forest)
-(中部ファリアス森)</t>
-  </si>
-  <si>
-    <t>에산치우 마을
-(Escanciu Village)
-(エサンチウ村)</t>
-  </si>
-  <si>
-    <t>대지의 요새 결전지
-(Fortress Battlegrounds)
-([大地の要塞]決戦地)</t>
-  </si>
-  <si>
-    <t>수정광산 2광구 2층
-(Crystal Mine Lot 2 - 2F)
-(水晶鉱山第2鉱区2階)</t>
-  </si>
-  <si>
-    <t>그리나스 수련장
-(Grynas Training Camp)
-(グリナス修練場)</t>
-  </si>
-  <si>
-    <t>테넷 성당 지하 1층
-(Tenet Church B1)
-(ターネット聖堂地下1階)</t>
-  </si>
-  <si>
-    <t>람스티스 협곡
-(Ramstis Ridge)
-(ラムスティス峡谷)</t>
-  </si>
-  <si>
-    <t>트비르투마스 요새
-(Tvirtumas Fortress)
-(トビルトゥマスの要塞)</t>
-  </si>
-  <si>
-    <t>애스팔비스 신역
-(Sacred Atspalvis)
-(アスパルビス神域)</t>
-  </si>
-  <si>
-    <t>봄볕나무 숲
-(Spring Light Woods)
-(春光の森)</t>
-  </si>
-  <si>
-    <t>갈르엣 평야
-(Galeed Plateau)
-(ガルエット平野)</t>
+    <t>실라 숲,(Syla Forest),(シーラ森)</t>
+  </si>
+  <si>
+    <t>파우피스 나루,(Paupys Crossing),(パウフィスの渡し場)</t>
+  </si>
+  <si>
+    <t>지부리나스 숲,(Ziburynas Forest),(ジブリナス森)</t>
+  </si>
+  <si>
+    <t>스칼다 외곽,(Skalda Outskirts),(スカルダ外郭)</t>
+  </si>
+  <si>
+    <t>남부 파리아스 숲,(Southern Parias Forest),(南部ファリアス森)</t>
+  </si>
+  <si>
+    <t>메사파슬라,(Mesafasla),(メサパスラ)</t>
+  </si>
+  <si>
+    <t>란코22수역,(Lanko 22 Waters),(ランコ水域・第22区)</t>
+  </si>
+  <si>
+    <t>시르드겔라 숲,(Sirdgela Forest),(シルドゲラの森)</t>
+  </si>
+  <si>
+    <t>아르커스 숲,(Arcus Forest),(アルコス森)</t>
+  </si>
+  <si>
+    <t>피스티스 숲,(Pystis Forest),(ピスティス森)</t>
+  </si>
+  <si>
+    <t>섹타 숲,(Sekta Forest),(セクターの森)</t>
+  </si>
+  <si>
+    <t>테레쉬 숲,(Teresh Forest),(テレシュの森)</t>
+  </si>
+  <si>
+    <t>비에타 계곡,(Vieta Gorge),(ビエタ渓谷)</t>
+  </si>
+  <si>
+    <t>제로멜 공원,(Jeromel Park),(ジェロメル公園)</t>
+  </si>
+  <si>
+    <t>파사카 협곡,(Fasika Plateau),(パサカ峡谷)</t>
+  </si>
+  <si>
+    <t>셉티니 골,(Septyni Glen),(セプティニーの谷)</t>
+  </si>
+  <si>
+    <t>긴다리 계곡,(Overlong Bridge Valley),(長橋峡谷)</t>
+  </si>
+  <si>
+    <t>딩고파실 지구,(Dingofasil District),(ディンゴパシル地区)</t>
+  </si>
+  <si>
+    <t>아샤크 지하 감옥 1층,(Ashaq Underground Prison 1F),(アシャーク地下監獄 1階)</t>
+  </si>
+  <si>
+    <t>중부 파리아스 숲,(Central Parias Forest),(中部ファリアス森)</t>
+  </si>
+  <si>
+    <t>에산치우 마을,(Escanciu Village),(エサンチウ村)</t>
+  </si>
+  <si>
+    <t>대지의 요새 결전지,(Fortress Battlegrounds),([大地の要塞]決戦地)</t>
+  </si>
+  <si>
+    <t>라다르 숲,(Lhadar Forest),(ラダル森)</t>
+  </si>
+  <si>
+    <t>수정광산 2광구 2층,(Crystal Mine Lot 2 - 2F),(水晶鉱山第2鉱区2階)</t>
+  </si>
+  <si>
+    <t>누오로딘 폭포,(Nuoridin Falls),(ヌオルディンの滝)</t>
+  </si>
+  <si>
+    <t>나하스 숲,(Nahash Forest),(ナハスの森)</t>
+  </si>
+  <si>
+    <t>그리나스 수련장,(Grynas Training Camp),(グリナス修練場)</t>
+  </si>
+  <si>
+    <t>테넷 성당 지하 1층,(Tenet Church B1),(ターネット聖堂地下1階)</t>
+  </si>
+  <si>
+    <t>람스티스 협곡,(Ramstis Ridge),(ラムスティス峡谷)</t>
+  </si>
+  <si>
+    <t>트비르투마스 요새,(Tvirtumas Fortress),(トビルトゥマスの要塞)</t>
+  </si>
+  <si>
+    <t>애스팔비스 신역,(Sacred Atspalvis),(アスパルビス神域)</t>
+  </si>
+  <si>
+    <t>봄볕나무 숲,(Spring Light Woods),(春光の森)</t>
+  </si>
+  <si>
+    <t>갈르엣 평야,(Galeed Plateau),(ガルエット平野)</t>
   </si>
 </sst>
 </file>
@@ -678,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -760,7 +723,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="144.75">
+    <row r="5" spans="1:12" ht="108.75">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -801,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
@@ -814,9 +777,9 @@
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="144.75">
+    <row r="8" spans="1:12" ht="108.75">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
@@ -837,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -852,10 +815,10 @@
     </row>
     <row r="10" spans="1:12" ht="108.75">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -870,10 +833,10 @@
     </row>
     <row r="11" spans="1:12" ht="108.75">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
@@ -886,12 +849,12 @@
       <c r="K11" s="2"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="108.75">
+    <row r="12" spans="1:12" ht="72">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -906,10 +869,10 @@
     </row>
     <row r="13" spans="1:12" ht="108.75">
       <c r="A13" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -927,7 +890,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
@@ -940,12 +903,12 @@
       <c r="K14" s="2"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="108.75">
+    <row r="15" spans="1:12" ht="72">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
@@ -958,12 +921,12 @@
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="108.75">
+    <row r="16" spans="1:12" ht="72">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -976,12 +939,12 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="108.75">
+    <row r="17" spans="1:12" ht="72.75">
       <c r="A17" s="5" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -994,12 +957,12 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="108.75">
+    <row r="18" spans="1:12" ht="72.75">
       <c r="A18" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1012,12 +975,12 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="108.75">
+    <row r="19" spans="1:12" ht="72.75">
       <c r="A19" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
@@ -1032,10 +995,10 @@
     </row>
     <row r="20" spans="1:12" ht="108.75">
       <c r="A20" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1053,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
@@ -1068,10 +1031,10 @@
     </row>
     <row r="22" spans="1:12" ht="108.75">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1086,10 +1049,10 @@
     </row>
     <row r="23" spans="1:12" ht="108.75">
       <c r="A23" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1102,12 +1065,12 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="108.75">
+    <row r="24" spans="1:12" ht="109.5">
       <c r="A24" s="5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1120,12 +1083,12 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="108.75">
+    <row r="25" spans="1:12" ht="72.75">
       <c r="A25" s="5" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1138,12 +1101,12 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="144.75">
+    <row r="26" spans="1:12" ht="108.75">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1158,10 +1121,10 @@
     </row>
     <row r="27" spans="1:12" ht="108.75">
       <c r="A27" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1176,10 +1139,10 @@
     </row>
     <row r="28" spans="1:12" ht="108.75">
       <c r="A28" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1194,10 +1157,10 @@
     </row>
     <row r="29" spans="1:12" ht="108.75">
       <c r="A29" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1210,9 +1173,9 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="108.75">
+    <row r="30" spans="1:12" ht="72">
       <c r="A30" s="5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>5</v>
@@ -1228,12 +1191,12 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="108.75">
+    <row r="31" spans="1:12" ht="72">
       <c r="A31" s="5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
